--- a/future_value_tester.xlsx
+++ b/future_value_tester.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eren\Desktop\Eren-Backup\Projects\discounted_cashflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F348BF-7311-4CD0-AE22-B48D63F6D56D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A68708E-5973-46FA-AF5B-FF772386B01E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7260" yWindow="3300" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa2" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>Group</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>uoa10</t>
+  </si>
+  <si>
+    <t>uoa11</t>
   </si>
 </sst>
 </file>
@@ -416,7 +419,7 @@
   <dimension ref="A1:D2100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,7 +583,18 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D12" s="2"/>
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>2023</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1652000</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D13" s="2"/>
